--- a/assets/education.xlsx
+++ b/assets/education.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Major</t>
   </si>
@@ -22,22 +22,28 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Dev Fullstack</t>
-  </si>
-  <si>
-    <t>IFRS Canoas</t>
+    <t xml:space="preserve">Technician in Systems Development Integrated with High School  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFRS (Federal Institute of Education, Science and Technology) – Canoas Campus  </t>
   </si>
   <si>
     <t>2019 - 2022</t>
   </si>
   <si>
-    <t>Web Design</t>
-  </si>
-  <si>
-    <t>ETEC São Paulo</t>
-  </si>
-  <si>
-    <t>2023 - 2024</t>
+    <t xml:space="preserve">Associate’s Degree in Software Analysis and Development  </t>
+  </si>
+  <si>
+    <t>La Salle University</t>
+  </si>
+  <si>
+    <t>2025 - Present</t>
+  </si>
+  <si>
+    <t>Bachelor's Degree in Social Sciences</t>
+  </si>
+  <si>
+    <t>UFRGS (Rio Grande do Sul's Federal University)</t>
   </si>
 </sst>
 </file>
@@ -336,6 +342,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/assets/education.xlsx
+++ b/assets/education.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Major</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Time</t>
   </si>
   <si>
+    <t>Link</t>
+  </si>
+  <si>
     <t xml:space="preserve">Technician in Systems Development Integrated with High School  </t>
   </si>
   <si>
@@ -31,6 +34,9 @@
     <t>2019 - 2022</t>
   </si>
   <si>
+    <t>https://ifrs.edu.br/canoas/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Associate’s Degree in Software Analysis and Development  </t>
   </si>
   <si>
@@ -40,17 +46,23 @@
     <t>2025 - Present</t>
   </si>
   <si>
+    <t>https://www.unilasalle.edu.br/canoas</t>
+  </si>
+  <si>
     <t>Bachelor's Degree in Social Sciences</t>
   </si>
   <si>
     <t>UFRGS (Rio Grande do Sul's Federal University)</t>
+  </si>
+  <si>
+    <t>http://www.ufrgs.br/ufrgs/aluno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -68,6 +80,10 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -83,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -91,6 +107,9 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -319,41 +338,58 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="D3"/>
+    <hyperlink r:id="rId3" ref="D4"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/assets/education.xlsx
+++ b/assets/education.xlsx
@@ -28,10 +28,10 @@
     <t>Image</t>
   </si>
   <si>
-    <t xml:space="preserve">Technician in Systems Development Integrated with High School  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFRS (Federal Institute of Education, Science and Technology) – Canoas Campus  </t>
+    <t>Technician in Systems Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFRS (Federal Institute of Education, Science and Technology)  </t>
   </si>
   <si>
     <t>2019 - 2022</t>
@@ -43,7 +43,7 @@
     <t>ifrs.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">Associate’s Degree in Software Analysis and Development  </t>
+    <t>Associate’s Degree in Software Analysis and Development</t>
   </si>
   <si>
     <t>LaSalle University</t>
@@ -55,7 +55,7 @@
     <t>unilasalle.jpg</t>
   </si>
   <si>
-    <t>Bachelor's Degree in Social Sciences</t>
+    <t>Bachelor's Degree in Social Service</t>
   </si>
   <si>
     <t>UFRGS (Rio Grande do Sul's Federal University)</t>
